--- a/data/pca/factorExposure/factorExposure_2015-01-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009414767042388533</v>
+        <v>0.008352597479862559</v>
       </c>
       <c r="C2">
-        <v>-0.03722327728233216</v>
+        <v>0.05293049056357495</v>
       </c>
       <c r="D2">
-        <v>0.1112737446762097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03618072729459377</v>
+      </c>
+      <c r="E2">
+        <v>0.1093169653157878</v>
+      </c>
+      <c r="F2">
+        <v>-0.132619849104852</v>
+      </c>
+      <c r="G2">
+        <v>-0.07481235836699687</v>
+      </c>
+      <c r="H2">
+        <v>-0.04673944914432391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03699032896092258</v>
+        <v>0.01921526542572496</v>
       </c>
       <c r="C4">
-        <v>-0.1069813106482243</v>
+        <v>0.1313773798121765</v>
       </c>
       <c r="D4">
-        <v>0.06825294463476807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.01689826587431536</v>
+      </c>
+      <c r="E4">
+        <v>0.08320364352768404</v>
+      </c>
+      <c r="F4">
+        <v>-0.1104751488730796</v>
+      </c>
+      <c r="G4">
+        <v>0.06238931532643675</v>
+      </c>
+      <c r="H4">
+        <v>-0.02470461540081007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02771891160432106</v>
+        <v>0.0341709008881361</v>
       </c>
       <c r="C6">
-        <v>-0.03608146464203613</v>
+        <v>0.05034735612216636</v>
       </c>
       <c r="D6">
-        <v>0.08173182938282843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01420621661878876</v>
+      </c>
+      <c r="E6">
+        <v>0.1136223940942708</v>
+      </c>
+      <c r="F6">
+        <v>-0.07703824348180682</v>
+      </c>
+      <c r="G6">
+        <v>-0.002531965606743393</v>
+      </c>
+      <c r="H6">
+        <v>0.04517942068196289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00814838140562444</v>
+        <v>0.005578258949253576</v>
       </c>
       <c r="C7">
-        <v>-0.03630955435504073</v>
+        <v>0.05196925892275121</v>
       </c>
       <c r="D7">
-        <v>0.06689164059392633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.003434710334031535</v>
+      </c>
+      <c r="E7">
+        <v>0.09330779839467734</v>
+      </c>
+      <c r="F7">
+        <v>-0.02657745911325257</v>
+      </c>
+      <c r="G7">
+        <v>0.02038733575495901</v>
+      </c>
+      <c r="H7">
+        <v>0.004025296062781034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.000447787067996228</v>
+        <v>-0.005838043359725286</v>
       </c>
       <c r="C8">
-        <v>-0.04359203304377712</v>
+        <v>0.05244790759278068</v>
       </c>
       <c r="D8">
-        <v>0.06531450401571602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00663249694914173</v>
+      </c>
+      <c r="E8">
+        <v>0.06373747565180925</v>
+      </c>
+      <c r="F8">
+        <v>-0.07979449000382552</v>
+      </c>
+      <c r="G8">
+        <v>0.007612998179756887</v>
+      </c>
+      <c r="H8">
+        <v>-0.06692527828359675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02342402294979444</v>
+        <v>0.01181716011224641</v>
       </c>
       <c r="C9">
-        <v>-0.09253252998781239</v>
+        <v>0.1086633151716978</v>
       </c>
       <c r="D9">
-        <v>0.07564843193313836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01771442166447046</v>
+      </c>
+      <c r="E9">
+        <v>0.07683940268067016</v>
+      </c>
+      <c r="F9">
+        <v>-0.08269849425992488</v>
+      </c>
+      <c r="G9">
+        <v>0.02543346970197781</v>
+      </c>
+      <c r="H9">
+        <v>0.01073906533282909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.2226370989105626</v>
+        <v>0.2437039159133097</v>
       </c>
       <c r="C10">
-        <v>0.1063642423723375</v>
+        <v>-0.07988110979294762</v>
       </c>
       <c r="D10">
-        <v>-0.04242773756202587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.000140640286183069</v>
+      </c>
+      <c r="E10">
+        <v>-0.02803912239425145</v>
+      </c>
+      <c r="F10">
+        <v>-0.02216585802783435</v>
+      </c>
+      <c r="G10">
+        <v>0.01095640999084238</v>
+      </c>
+      <c r="H10">
+        <v>0.004163127986928342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.004669371637987502</v>
+        <v>0.008897729793783565</v>
       </c>
       <c r="C11">
-        <v>-0.04266577702149287</v>
+        <v>0.06352189594042791</v>
       </c>
       <c r="D11">
-        <v>0.03904292822160989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0007678173851211924</v>
+      </c>
+      <c r="E11">
+        <v>0.05465882376140877</v>
+      </c>
+      <c r="F11">
+        <v>-0.01118074157077536</v>
+      </c>
+      <c r="G11">
+        <v>0.01273825436539262</v>
+      </c>
+      <c r="H11">
+        <v>0.007791188276033565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.004993424282568978</v>
+        <v>0.009828276049954471</v>
       </c>
       <c r="C12">
-        <v>-0.04660970214220331</v>
+        <v>0.05453727881917121</v>
       </c>
       <c r="D12">
-        <v>0.04675539477589172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.008482244316726161</v>
+      </c>
+      <c r="E12">
+        <v>0.0501324160686599</v>
+      </c>
+      <c r="F12">
+        <v>-0.01094019716026055</v>
+      </c>
+      <c r="G12">
+        <v>-0.01440578448058999</v>
+      </c>
+      <c r="H12">
+        <v>0.02523159139507672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01680507687994023</v>
+        <v>0.004954711413582428</v>
       </c>
       <c r="C13">
-        <v>-0.05523392383365558</v>
+        <v>0.08708001583719145</v>
       </c>
       <c r="D13">
-        <v>0.1115724276520256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0508359600381702</v>
+      </c>
+      <c r="E13">
+        <v>0.1234910913482016</v>
+      </c>
+      <c r="F13">
+        <v>-0.05934953660711516</v>
+      </c>
+      <c r="G13">
+        <v>-0.09331182677773786</v>
+      </c>
+      <c r="H13">
+        <v>0.0295449972509268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0104320492656825</v>
+        <v>0.002390454525959519</v>
       </c>
       <c r="C14">
-        <v>-0.02214756920156433</v>
+        <v>0.04442422766922274</v>
       </c>
       <c r="D14">
-        <v>0.05752559737404817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.00618054287199957</v>
+      </c>
+      <c r="E14">
+        <v>0.106068470733126</v>
+      </c>
+      <c r="F14">
+        <v>-0.05846189149711489</v>
+      </c>
+      <c r="G14">
+        <v>-0.03164000519128005</v>
+      </c>
+      <c r="H14">
+        <v>0.03318419960680035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002405584400166078</v>
+        <v>-0.005196580488620392</v>
       </c>
       <c r="C15">
-        <v>-0.01655524874268152</v>
+        <v>0.03954395746368955</v>
       </c>
       <c r="D15">
-        <v>0.05426527517350938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01574652318480361</v>
+      </c>
+      <c r="E15">
+        <v>0.06972211077795128</v>
+      </c>
+      <c r="F15">
+        <v>-0.02999339055745021</v>
+      </c>
+      <c r="G15">
+        <v>-0.002281691397824786</v>
+      </c>
+      <c r="H15">
+        <v>-0.01165651288029938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.005833267522896097</v>
+        <v>0.009114273427917173</v>
       </c>
       <c r="C16">
-        <v>-0.04369226716768505</v>
+        <v>0.05667954895440955</v>
       </c>
       <c r="D16">
-        <v>0.04349568916376263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.004375209252346666</v>
+      </c>
+      <c r="E16">
+        <v>0.05154082271957144</v>
+      </c>
+      <c r="F16">
+        <v>-0.008883376350633399</v>
+      </c>
+      <c r="G16">
+        <v>0.01095113613817233</v>
+      </c>
+      <c r="H16">
+        <v>0.0255466556764998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002699629843081334</v>
+        <v>0.0003587650908512542</v>
       </c>
       <c r="C19">
-        <v>-0.02748484087181108</v>
+        <v>0.02014930544148355</v>
       </c>
       <c r="D19">
-        <v>0.03927441056568636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.009960480706945303</v>
+      </c>
+      <c r="E19">
+        <v>0.01045200411263799</v>
+      </c>
+      <c r="F19">
+        <v>0.001740117023484387</v>
+      </c>
+      <c r="G19">
+        <v>-0.02631893105652151</v>
+      </c>
+      <c r="H19">
+        <v>-0.01924182867114853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002226516210432045</v>
+        <v>0.002954875319080013</v>
       </c>
       <c r="C20">
-        <v>-0.03885329972521003</v>
+        <v>0.05960088398184948</v>
       </c>
       <c r="D20">
-        <v>0.05355419853798155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01785556743264656</v>
+      </c>
+      <c r="E20">
+        <v>0.07312268437618086</v>
+      </c>
+      <c r="F20">
+        <v>-0.0293029225667361</v>
+      </c>
+      <c r="G20">
+        <v>0.02339274063585489</v>
+      </c>
+      <c r="H20">
+        <v>0.01720591938467645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003911549049899808</v>
+        <v>0.002887880471008195</v>
       </c>
       <c r="C21">
-        <v>-0.0610491261464153</v>
+        <v>0.07145144488051625</v>
       </c>
       <c r="D21">
-        <v>0.0729714354724819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01346292556556367</v>
+      </c>
+      <c r="E21">
+        <v>0.07804485485483172</v>
+      </c>
+      <c r="F21">
+        <v>-0.09775287263479701</v>
+      </c>
+      <c r="G21">
+        <v>-0.110396417080538</v>
+      </c>
+      <c r="H21">
+        <v>0.01857630066161877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002127201769426763</v>
+        <v>-0.01157391481043415</v>
       </c>
       <c r="C22">
-        <v>-0.07548788895980624</v>
+        <v>0.1022783833175473</v>
       </c>
       <c r="D22">
-        <v>0.1877443080432009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1047679714168738</v>
+      </c>
+      <c r="E22">
+        <v>0.1952465822532261</v>
+      </c>
+      <c r="F22">
+        <v>-0.2088789429469066</v>
+      </c>
+      <c r="G22">
+        <v>0.05909670989164541</v>
+      </c>
+      <c r="H22">
+        <v>-0.2524568183008987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002296482646104938</v>
+        <v>-0.008560560162093453</v>
       </c>
       <c r="C23">
-        <v>-0.07658434066160336</v>
+        <v>0.1049555309842343</v>
       </c>
       <c r="D23">
-        <v>0.186839895968277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1078136673518272</v>
+      </c>
+      <c r="E23">
+        <v>0.1935428790058619</v>
+      </c>
+      <c r="F23">
+        <v>-0.2080004289389195</v>
+      </c>
+      <c r="G23">
+        <v>0.05497966863991383</v>
+      </c>
+      <c r="H23">
+        <v>-0.242829382789694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.006613913338841877</v>
+        <v>0.009548084043851874</v>
       </c>
       <c r="C24">
-        <v>-0.06406318956356974</v>
+        <v>0.07293129026277474</v>
       </c>
       <c r="D24">
-        <v>0.05220638218831023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.004159583617739618</v>
+      </c>
+      <c r="E24">
+        <v>0.05944368726211229</v>
+      </c>
+      <c r="F24">
+        <v>-0.01428017214574558</v>
+      </c>
+      <c r="G24">
+        <v>0.002039201724908719</v>
+      </c>
+      <c r="H24">
+        <v>0.009010281379629732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.008372739918084304</v>
+        <v>0.01365667392445304</v>
       </c>
       <c r="C25">
-        <v>-0.05644926238964998</v>
+        <v>0.06740143244256762</v>
       </c>
       <c r="D25">
-        <v>0.04102605079390603</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.007024620639321068</v>
+      </c>
+      <c r="E25">
+        <v>0.04527215051569469</v>
+      </c>
+      <c r="F25">
+        <v>-0.01444912667047647</v>
+      </c>
+      <c r="G25">
+        <v>0.01115400249163469</v>
+      </c>
+      <c r="H25">
+        <v>0.01387502851748603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.006322202101205859</v>
+        <v>0.01581205420273843</v>
       </c>
       <c r="C26">
-        <v>-0.02719345882442714</v>
+        <v>0.04556347666819336</v>
       </c>
       <c r="D26">
-        <v>0.04844421810347201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01793648386198428</v>
+      </c>
+      <c r="E26">
+        <v>0.07193583592408197</v>
+      </c>
+      <c r="F26">
+        <v>-0.06057496222137498</v>
+      </c>
+      <c r="G26">
+        <v>-0.01221272548252209</v>
+      </c>
+      <c r="H26">
+        <v>-0.007001303989761829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.3049510177570268</v>
+        <v>0.3147909791928936</v>
       </c>
       <c r="C28">
-        <v>0.1064722909536524</v>
+        <v>-0.08586361743219614</v>
       </c>
       <c r="D28">
-        <v>-0.02132558085180766</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01842919912055813</v>
+      </c>
+      <c r="E28">
+        <v>-0.05373110300843203</v>
+      </c>
+      <c r="F28">
+        <v>-0.06300932621706401</v>
+      </c>
+      <c r="G28">
+        <v>-0.001642429743668221</v>
+      </c>
+      <c r="H28">
+        <v>-0.08081728586395491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.000186272123821924</v>
+        <v>0.002692731687015359</v>
       </c>
       <c r="C29">
-        <v>-0.02918934219199513</v>
+        <v>0.05220126946890706</v>
       </c>
       <c r="D29">
-        <v>0.06127016901726444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.005215718357061178</v>
+      </c>
+      <c r="E29">
+        <v>0.1165560015586722</v>
+      </c>
+      <c r="F29">
+        <v>-0.06327971277076515</v>
+      </c>
+      <c r="G29">
+        <v>-0.03493548630179591</v>
+      </c>
+      <c r="H29">
+        <v>0.05298298753178422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.01806451282292371</v>
+        <v>0.01605738503969156</v>
       </c>
       <c r="C30">
-        <v>-0.09469068470534997</v>
+        <v>0.1164102243072315</v>
       </c>
       <c r="D30">
-        <v>0.1333954553733683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.01645186693414587</v>
+      </c>
+      <c r="E30">
+        <v>0.1407884787654863</v>
+      </c>
+      <c r="F30">
+        <v>-0.05357041343117482</v>
+      </c>
+      <c r="G30">
+        <v>0.02556239459115484</v>
+      </c>
+      <c r="H30">
+        <v>-0.0009620911786300774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.01519566706633657</v>
+        <v>0.00836562160887671</v>
       </c>
       <c r="C31">
-        <v>-0.09840367296545979</v>
+        <v>0.1025929102779106</v>
       </c>
       <c r="D31">
-        <v>0.03539466688342974</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00695892785602664</v>
+      </c>
+      <c r="E31">
+        <v>0.02108137677262418</v>
+      </c>
+      <c r="F31">
+        <v>-0.009186581053740017</v>
+      </c>
+      <c r="G31">
+        <v>-0.01274867416544769</v>
+      </c>
+      <c r="H31">
+        <v>-0.02759469612458284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01146684019415089</v>
+        <v>0.01173952736525238</v>
       </c>
       <c r="C32">
-        <v>-0.0556862685787179</v>
+        <v>0.0641749905687216</v>
       </c>
       <c r="D32">
-        <v>0.07600487007353852</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04912943829584392</v>
+      </c>
+      <c r="E32">
+        <v>0.0451985532964523</v>
+      </c>
+      <c r="F32">
+        <v>-0.08376222972730123</v>
+      </c>
+      <c r="G32">
+        <v>-0.03288373016416043</v>
+      </c>
+      <c r="H32">
+        <v>-0.004661154436396647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0007573480825544813</v>
+        <v>0.006901957646407987</v>
       </c>
       <c r="C33">
-        <v>-0.05826302759711628</v>
+        <v>0.08285639423836112</v>
       </c>
       <c r="D33">
-        <v>0.07773272368986141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01958830840212126</v>
+      </c>
+      <c r="E33">
+        <v>0.09478700671463638</v>
+      </c>
+      <c r="F33">
+        <v>-0.0490425359173311</v>
+      </c>
+      <c r="G33">
+        <v>-0.00452656914426007</v>
+      </c>
+      <c r="H33">
+        <v>0.007006465264311034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.003558034927682584</v>
+        <v>0.008804710519391514</v>
       </c>
       <c r="C34">
-        <v>-0.06057977575187089</v>
+        <v>0.06244140942583165</v>
       </c>
       <c r="D34">
-        <v>0.05593361786646526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.002803294148176912</v>
+      </c>
+      <c r="E34">
+        <v>0.04720032052771257</v>
+      </c>
+      <c r="F34">
+        <v>0.01596721871789827</v>
+      </c>
+      <c r="G34">
+        <v>-0.01720546448937154</v>
+      </c>
+      <c r="H34">
+        <v>0.002681766371513897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0009533639716435308</v>
+        <v>0.00426273717401626</v>
       </c>
       <c r="C35">
-        <v>-0.001121919577300864</v>
+        <v>0.02100922678280295</v>
       </c>
       <c r="D35">
-        <v>0.005135597098641547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007682599740694463</v>
+      </c>
+      <c r="E35">
+        <v>0.0342604694567384</v>
+      </c>
+      <c r="F35">
+        <v>-0.03313057334564054</v>
+      </c>
+      <c r="G35">
+        <v>-0.001355199700348167</v>
+      </c>
+      <c r="H35">
+        <v>0.02520457009327911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.005206293294093124</v>
+        <v>0.01010625295126996</v>
       </c>
       <c r="C36">
-        <v>-0.02851245538205093</v>
+        <v>0.0389699161039634</v>
       </c>
       <c r="D36">
-        <v>0.0414395537499458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.004671111035061448</v>
+      </c>
+      <c r="E36">
+        <v>0.06151657578553986</v>
+      </c>
+      <c r="F36">
+        <v>-0.05446681726049134</v>
+      </c>
+      <c r="G36">
+        <v>-0.004332296175140932</v>
+      </c>
+      <c r="H36">
+        <v>0.0009412060902757876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.004880163824299634</v>
+        <v>0.006525453393646379</v>
       </c>
       <c r="C38">
-        <v>-0.02271207606075791</v>
+        <v>0.04261255878027209</v>
       </c>
       <c r="D38">
-        <v>0.07194270080347392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01950824131149153</v>
+      </c>
+      <c r="E38">
+        <v>0.07815598565421336</v>
+      </c>
+      <c r="F38">
+        <v>-0.02479038045026373</v>
+      </c>
+      <c r="G38">
+        <v>0.01944188869382387</v>
+      </c>
+      <c r="H38">
+        <v>-0.05134245803939069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.006403686344825739</v>
+        <v>0.006711568216566545</v>
       </c>
       <c r="C39">
-        <v>-0.07149412104675508</v>
+        <v>0.09985878632924858</v>
       </c>
       <c r="D39">
-        <v>0.09904638418158766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.006755892973744256</v>
+      </c>
+      <c r="E39">
+        <v>0.1168111452936967</v>
+      </c>
+      <c r="F39">
+        <v>-0.01883336851998945</v>
+      </c>
+      <c r="G39">
+        <v>-0.003437331156377644</v>
+      </c>
+      <c r="H39">
+        <v>0.03233230248934964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.003901122145653388</v>
+        <v>0.009277846726743292</v>
       </c>
       <c r="C40">
-        <v>-0.03096173530681492</v>
+        <v>0.04726040362808323</v>
       </c>
       <c r="D40">
-        <v>0.1016275499042525</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01673915007000014</v>
+      </c>
+      <c r="E40">
+        <v>0.1180296020844296</v>
+      </c>
+      <c r="F40">
+        <v>-0.01040146047396877</v>
+      </c>
+      <c r="G40">
+        <v>-0.04036466738629749</v>
+      </c>
+      <c r="H40">
+        <v>-0.009600702762966694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008941352153966256</v>
+        <v>0.01676834355756306</v>
       </c>
       <c r="C41">
-        <v>-0.02223249829526487</v>
+        <v>0.03816881366673464</v>
       </c>
       <c r="D41">
-        <v>0.01862518753049188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.006794084761908156</v>
+      </c>
+      <c r="E41">
+        <v>0.02118540522980209</v>
+      </c>
+      <c r="F41">
+        <v>-0.006839316062692594</v>
+      </c>
+      <c r="G41">
+        <v>0.00195062125476039</v>
+      </c>
+      <c r="H41">
+        <v>-0.009734982741115028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002330744315060337</v>
+        <v>0.008216212136773106</v>
       </c>
       <c r="C43">
-        <v>-0.01727160448129637</v>
+        <v>0.0318648621250538</v>
       </c>
       <c r="D43">
-        <v>0.03409145720453934</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006963682757741286</v>
+      </c>
+      <c r="E43">
+        <v>0.03909268894517279</v>
+      </c>
+      <c r="F43">
+        <v>-0.01144184504921295</v>
+      </c>
+      <c r="G43">
+        <v>0.008703864198407761</v>
+      </c>
+      <c r="H43">
+        <v>-0.01167670004780644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01473723883051446</v>
+        <v>0.007324746633833693</v>
       </c>
       <c r="C44">
-        <v>-0.05111254884791882</v>
+        <v>0.07001963116358288</v>
       </c>
       <c r="D44">
-        <v>0.07874492754210935</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.004901957974436631</v>
+      </c>
+      <c r="E44">
+        <v>0.1080067805905556</v>
+      </c>
+      <c r="F44">
+        <v>-0.06427979330420715</v>
+      </c>
+      <c r="G44">
+        <v>0.00525761054742241</v>
+      </c>
+      <c r="H44">
+        <v>-0.0188312487896821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002704524338966496</v>
+        <v>-0.001404507404926371</v>
       </c>
       <c r="C46">
-        <v>-0.0368152521306316</v>
+        <v>0.05062972054259326</v>
       </c>
       <c r="D46">
-        <v>0.06052113945779258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01028807749343972</v>
+      </c>
+      <c r="E46">
+        <v>0.08550234761370941</v>
+      </c>
+      <c r="F46">
+        <v>-0.05526990078085024</v>
+      </c>
+      <c r="G46">
+        <v>-0.01383970118126914</v>
+      </c>
+      <c r="H46">
+        <v>0.01118844306130521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.04100168619141973</v>
+        <v>0.02585502010475474</v>
       </c>
       <c r="C47">
-        <v>-0.1326710733447468</v>
+        <v>0.1268583266485452</v>
       </c>
       <c r="D47">
-        <v>0.04332735955650386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004883359745327466</v>
+      </c>
+      <c r="E47">
+        <v>0.002402653448954629</v>
+      </c>
+      <c r="F47">
+        <v>0.009626791988500612</v>
+      </c>
+      <c r="G47">
+        <v>0.003526578684278392</v>
+      </c>
+      <c r="H47">
+        <v>-0.02590795105455526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.003812570223090564</v>
+        <v>0.01198996777772673</v>
       </c>
       <c r="C48">
-        <v>-0.03094091023356498</v>
+        <v>0.04656441199514633</v>
       </c>
       <c r="D48">
-        <v>0.04103321453264606</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003408202489427789</v>
+      </c>
+      <c r="E48">
+        <v>0.0649707933638331</v>
+      </c>
+      <c r="F48">
+        <v>-0.06767409331554762</v>
+      </c>
+      <c r="G48">
+        <v>-0.001014447315255997</v>
+      </c>
+      <c r="H48">
+        <v>-0.005520668674110742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002828834198378967</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006455544872965279</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.002023729925215659</v>
+      </c>
+      <c r="E49">
+        <v>0.002251519998111296</v>
+      </c>
+      <c r="F49">
+        <v>0.01319945832421371</v>
+      </c>
+      <c r="G49">
+        <v>-0.0008920112998354234</v>
+      </c>
+      <c r="H49">
+        <v>0.01595924795147218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.01974290386648872</v>
+        <v>0.01191984618225202</v>
       </c>
       <c r="C50">
-        <v>-0.07334119060783582</v>
+        <v>0.08423122167712654</v>
       </c>
       <c r="D50">
-        <v>0.05614508042794573</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.006924300351935917</v>
+      </c>
+      <c r="E50">
+        <v>0.03855372213641663</v>
+      </c>
+      <c r="F50">
+        <v>-0.008361180341672552</v>
+      </c>
+      <c r="G50">
+        <v>0.001206467542650372</v>
+      </c>
+      <c r="H50">
+        <v>-0.03425775448713868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.004828206468180403</v>
+        <v>-0.005210876841002228</v>
       </c>
       <c r="C51">
-        <v>-0.01123732657513603</v>
+        <v>0.02485195129911611</v>
       </c>
       <c r="D51">
-        <v>0.0508166664094977</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01024134513891905</v>
+      </c>
+      <c r="E51">
+        <v>0.06095578710786039</v>
+      </c>
+      <c r="F51">
+        <v>-0.05689834596569014</v>
+      </c>
+      <c r="G51">
+        <v>-0.01744509210374942</v>
+      </c>
+      <c r="H51">
+        <v>-0.003530949638063237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07370756397490784</v>
+        <v>0.05570264711155209</v>
       </c>
       <c r="C53">
-        <v>-0.1637823787573472</v>
+        <v>0.1683904703272588</v>
       </c>
       <c r="D53">
-        <v>-0.01150248577268308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02425068492758104</v>
+      </c>
+      <c r="E53">
+        <v>-0.05802976419040534</v>
+      </c>
+      <c r="F53">
+        <v>0.006205318871160937</v>
+      </c>
+      <c r="G53">
+        <v>-0.01388550316013745</v>
+      </c>
+      <c r="H53">
+        <v>-0.03250692826650646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.00206654188383543</v>
+        <v>0.01011988334260778</v>
       </c>
       <c r="C54">
-        <v>-0.03640901518519993</v>
+        <v>0.05264402310833644</v>
       </c>
       <c r="D54">
-        <v>0.07854099437278821</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02355073168381825</v>
+      </c>
+      <c r="E54">
+        <v>0.07580347524598202</v>
+      </c>
+      <c r="F54">
+        <v>-0.0325028679134237</v>
+      </c>
+      <c r="G54">
+        <v>-0.002246870666370036</v>
+      </c>
+      <c r="H54">
+        <v>-0.01353739651728393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.05641171625905676</v>
+        <v>0.03647988391909917</v>
       </c>
       <c r="C55">
-        <v>-0.1280523615413623</v>
+        <v>0.1245733646659179</v>
       </c>
       <c r="D55">
-        <v>-0.007458002224688109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04705265881438832</v>
+      </c>
+      <c r="E55">
+        <v>-0.04464070688298592</v>
+      </c>
+      <c r="F55">
+        <v>0.03169520445885906</v>
+      </c>
+      <c r="G55">
+        <v>-0.02723334574997408</v>
+      </c>
+      <c r="H55">
+        <v>-0.0408184390802787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.08766428460204258</v>
+        <v>0.05548861286146969</v>
       </c>
       <c r="C56">
-        <v>-0.1897299160055948</v>
+        <v>0.1922022670839288</v>
       </c>
       <c r="D56">
-        <v>0.01191604054790623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03807586428112535</v>
+      </c>
+      <c r="E56">
+        <v>-0.07128719247064924</v>
+      </c>
+      <c r="F56">
+        <v>0.04605468683129543</v>
+      </c>
+      <c r="G56">
+        <v>-0.05930809215514268</v>
+      </c>
+      <c r="H56">
+        <v>-0.1040809784346911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01377112909206021</v>
+        <v>0.008774465044004618</v>
       </c>
       <c r="C58">
-        <v>-0.05558489666986514</v>
+        <v>0.1040886251445396</v>
       </c>
       <c r="D58">
-        <v>0.165320719976683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1064511547686478</v>
+      </c>
+      <c r="E58">
+        <v>0.1811914614812964</v>
+      </c>
+      <c r="F58">
+        <v>-0.2434059805496723</v>
+      </c>
+      <c r="G58">
+        <v>0.03390689514707106</v>
+      </c>
+      <c r="H58">
+        <v>-0.1423368955994599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2284061122584002</v>
+        <v>0.2632158802447255</v>
       </c>
       <c r="C59">
-        <v>0.06769639865795977</v>
+        <v>-0.04276298397690467</v>
       </c>
       <c r="D59">
-        <v>0.0451945674331452</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0360487019641358</v>
+      </c>
+      <c r="E59">
+        <v>0.01619296743341121</v>
+      </c>
+      <c r="F59">
+        <v>-0.04018443734495428</v>
+      </c>
+      <c r="G59">
+        <v>-0.03794712240873933</v>
+      </c>
+      <c r="H59">
+        <v>-0.01006008190510745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1454136970953698</v>
+        <v>0.1497670907681638</v>
       </c>
       <c r="C60">
-        <v>-0.1407061418167609</v>
+        <v>0.1658769726854799</v>
       </c>
       <c r="D60">
-        <v>0.1221909873005813</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0120052701619428</v>
+      </c>
+      <c r="E60">
+        <v>0.1277645539395398</v>
+      </c>
+      <c r="F60">
+        <v>0.2148605439696113</v>
+      </c>
+      <c r="G60">
+        <v>-0.001009725050642686</v>
+      </c>
+      <c r="H60">
+        <v>0.2427003448381914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01156704017505</v>
+        <v>0.01289943281723836</v>
       </c>
       <c r="C61">
-        <v>-0.06418256051129889</v>
+        <v>0.08642387646702646</v>
       </c>
       <c r="D61">
-        <v>0.06852631095865627</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.001797109115015537</v>
+      </c>
+      <c r="E61">
+        <v>0.07809585213837952</v>
+      </c>
+      <c r="F61">
+        <v>-0.008954524546430727</v>
+      </c>
+      <c r="G61">
+        <v>-0.007759234398739848</v>
+      </c>
+      <c r="H61">
+        <v>0.01192809267528223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001317401810031401</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0005157601528756496</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.001854084057242264</v>
+      </c>
+      <c r="E62">
+        <v>9.227668459941666e-05</v>
+      </c>
+      <c r="F62">
+        <v>-0.002972222170607301</v>
+      </c>
+      <c r="G62">
+        <v>-0.001248825645132719</v>
+      </c>
+      <c r="H62">
+        <v>-0.00122179561234469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.003547271974752497</v>
+        <v>0.01504049721443069</v>
       </c>
       <c r="C63">
-        <v>-0.03970767894580469</v>
+        <v>0.05762486149762457</v>
       </c>
       <c r="D63">
-        <v>0.06141374412297963</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01935086872899215</v>
+      </c>
+      <c r="E63">
+        <v>0.08325900818395292</v>
+      </c>
+      <c r="F63">
+        <v>-0.02925522390116457</v>
+      </c>
+      <c r="G63">
+        <v>-0.00303366237902556</v>
+      </c>
+      <c r="H63">
+        <v>0.01404280173120869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02621010664385696</v>
+        <v>0.01308403050630394</v>
       </c>
       <c r="C64">
-        <v>-0.1087751245687173</v>
+        <v>0.1053521646104881</v>
       </c>
       <c r="D64">
-        <v>0.009931789731414176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01677698274360997</v>
+      </c>
+      <c r="E64">
+        <v>0.0151789866060561</v>
+      </c>
+      <c r="F64">
+        <v>-0.0205869346312254</v>
+      </c>
+      <c r="G64">
+        <v>0.03362317316208099</v>
+      </c>
+      <c r="H64">
+        <v>0.01857933611437147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02385897602202574</v>
+        <v>0.02704177073328842</v>
       </c>
       <c r="C65">
-        <v>-0.03296560688500751</v>
+        <v>0.05797600338158443</v>
       </c>
       <c r="D65">
-        <v>0.08586070767159414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03443229844476599</v>
+      </c>
+      <c r="E65">
+        <v>0.1146934722086757</v>
+      </c>
+      <c r="F65">
+        <v>-0.01306371799578606</v>
+      </c>
+      <c r="G65">
+        <v>0.04951907196605944</v>
+      </c>
+      <c r="H65">
+        <v>0.06249803296433369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01276626524258319</v>
+        <v>0.007675423608353544</v>
       </c>
       <c r="C66">
-        <v>-0.09099339713432979</v>
+        <v>0.1247107078823146</v>
       </c>
       <c r="D66">
-        <v>0.1201989690065901</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.02110816447519843</v>
+      </c>
+      <c r="E66">
+        <v>0.1234028213280548</v>
+      </c>
+      <c r="F66">
+        <v>-0.02320151711911176</v>
+      </c>
+      <c r="G66">
+        <v>-0.007764429103025317</v>
+      </c>
+      <c r="H66">
+        <v>-0.000639617982307959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01336902421285945</v>
+        <v>0.01513883768703938</v>
       </c>
       <c r="C67">
-        <v>-0.02498678949217683</v>
+        <v>0.04180236246333731</v>
       </c>
       <c r="D67">
-        <v>0.04046760604434489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003778409240516254</v>
+      </c>
+      <c r="E67">
+        <v>0.05242411829032754</v>
+      </c>
+      <c r="F67">
+        <v>0.01441722489916169</v>
+      </c>
+      <c r="G67">
+        <v>0.01575474571023844</v>
+      </c>
+      <c r="H67">
+        <v>-0.03269301303281689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2416659275988829</v>
+        <v>0.2811635407706957</v>
       </c>
       <c r="C68">
-        <v>0.08472270668601144</v>
+        <v>-0.05670593079852394</v>
       </c>
       <c r="D68">
-        <v>0.0252860777915361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02615124720644913</v>
+      </c>
+      <c r="E68">
+        <v>0.03529915666169114</v>
+      </c>
+      <c r="F68">
+        <v>-0.05643534934276968</v>
+      </c>
+      <c r="G68">
+        <v>-0.003319490089720547</v>
+      </c>
+      <c r="H68">
+        <v>-0.03682692626256272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.02724629900522891</v>
+        <v>0.01110471167113329</v>
       </c>
       <c r="C69">
-        <v>-0.1324817539096326</v>
+        <v>0.1141463439598983</v>
       </c>
       <c r="D69">
-        <v>0.05596819989245689</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.003363017059175653</v>
+      </c>
+      <c r="E69">
+        <v>0.01282024897844157</v>
+      </c>
+      <c r="F69">
+        <v>0.01692955570939018</v>
+      </c>
+      <c r="G69">
+        <v>-0.007062729744807495</v>
+      </c>
+      <c r="H69">
+        <v>-0.01572686777105255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2595740498781302</v>
+        <v>0.2711520484075154</v>
       </c>
       <c r="C71">
-        <v>0.09941150907609302</v>
+        <v>-0.07245932330192131</v>
       </c>
       <c r="D71">
-        <v>0.01766078717440879</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.010997936570413</v>
+      </c>
+      <c r="E71">
+        <v>0.008356403524270188</v>
+      </c>
+      <c r="F71">
+        <v>-0.02687588333932446</v>
+      </c>
+      <c r="G71">
+        <v>-0.002750352860146503</v>
+      </c>
+      <c r="H71">
+        <v>-0.0591107691098815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.08038060141345775</v>
+        <v>0.06211627552305431</v>
       </c>
       <c r="C72">
-        <v>-0.1121946887048185</v>
+        <v>0.1331902019077663</v>
       </c>
       <c r="D72">
-        <v>0.09033570220776749</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01377995173284781</v>
+      </c>
+      <c r="E72">
+        <v>0.07428161689556716</v>
+      </c>
+      <c r="F72">
+        <v>0.03091900818964377</v>
+      </c>
+      <c r="G72">
+        <v>0.01844519733720512</v>
+      </c>
+      <c r="H72">
+        <v>0.04510317073932615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1521955558518602</v>
+        <v>0.156209193517003</v>
       </c>
       <c r="C73">
-        <v>-0.1137796364932056</v>
+        <v>0.1735825395999923</v>
       </c>
       <c r="D73">
-        <v>0.1836683840478998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.07246113110290253</v>
+      </c>
+      <c r="E73">
+        <v>0.2578781342373266</v>
+      </c>
+      <c r="F73">
+        <v>0.3545421487776327</v>
+      </c>
+      <c r="G73">
+        <v>0.06390972337245528</v>
+      </c>
+      <c r="H73">
+        <v>0.3604792334444578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.06790977285130934</v>
+        <v>0.0461717990499288</v>
       </c>
       <c r="C74">
-        <v>-0.1409479348232471</v>
+        <v>0.1388162625265471</v>
       </c>
       <c r="D74">
-        <v>-0.05765297243061381</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03864868897184604</v>
+      </c>
+      <c r="E74">
+        <v>-0.07378862866736149</v>
+      </c>
+      <c r="F74">
+        <v>0.003757234604375482</v>
+      </c>
+      <c r="G74">
+        <v>-0.004101116394054047</v>
+      </c>
+      <c r="H74">
+        <v>-0.03003711362220695</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1584639430215133</v>
+        <v>0.09146234158660663</v>
       </c>
       <c r="C75">
-        <v>-0.2543497883035508</v>
+        <v>0.2503148349153055</v>
       </c>
       <c r="D75">
-        <v>-0.03741054326860931</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.04317107242114928</v>
+      </c>
+      <c r="E75">
+        <v>-0.1712771476427225</v>
+      </c>
+      <c r="F75">
+        <v>0.1348839599849947</v>
+      </c>
+      <c r="G75">
+        <v>-0.02694676345161065</v>
+      </c>
+      <c r="H75">
+        <v>-0.227961940730088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.08814202364645574</v>
+        <v>0.05362979428691024</v>
       </c>
       <c r="C76">
-        <v>-0.1760658785596088</v>
+        <v>0.1777113233510015</v>
       </c>
       <c r="D76">
-        <v>0.002405802882339588</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03556059658453341</v>
+      </c>
+      <c r="E76">
+        <v>-0.06972706359487141</v>
+      </c>
+      <c r="F76">
+        <v>0.06766738816360593</v>
+      </c>
+      <c r="G76">
+        <v>-0.04664340322406207</v>
+      </c>
+      <c r="H76">
+        <v>-0.0697027796322274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.005531314897881471</v>
+        <v>0.001989041239876483</v>
       </c>
       <c r="C77">
-        <v>-0.1191166441945064</v>
+        <v>0.1525348276237332</v>
       </c>
       <c r="D77">
-        <v>0.2028552879936997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.9098039062197848</v>
+      </c>
+      <c r="E77">
+        <v>-0.2499825881391808</v>
+      </c>
+      <c r="F77">
+        <v>0.1046890097014403</v>
+      </c>
+      <c r="G77">
+        <v>0.104319572991923</v>
+      </c>
+      <c r="H77">
+        <v>0.1299514445184706</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02627975823190972</v>
+        <v>0.02454922593519291</v>
       </c>
       <c r="C78">
-        <v>-0.1034669409374659</v>
+        <v>0.1116953267681356</v>
       </c>
       <c r="D78">
-        <v>0.1296882929774621</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01419688907636127</v>
+      </c>
+      <c r="E78">
+        <v>0.09838790175834777</v>
+      </c>
+      <c r="F78">
+        <v>-0.05770564202496914</v>
+      </c>
+      <c r="G78">
+        <v>-0.06736996677541167</v>
+      </c>
+      <c r="H78">
+        <v>-0.04509390498349996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.07465228270034352</v>
+        <v>0.05170050893599067</v>
       </c>
       <c r="C79">
-        <v>-0.2966449202628925</v>
+        <v>0.2491629784461508</v>
       </c>
       <c r="D79">
-        <v>-0.6895727275057363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1936451066866648</v>
+      </c>
+      <c r="E79">
+        <v>-0.407427466503846</v>
+      </c>
+      <c r="F79">
+        <v>-0.5518485303457588</v>
+      </c>
+      <c r="G79">
+        <v>0.3490882888643079</v>
+      </c>
+      <c r="H79">
+        <v>0.4804890240879236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004037857708612381</v>
+        <v>0.007092826207460313</v>
       </c>
       <c r="C80">
-        <v>-0.05015270075157457</v>
+        <v>0.0498824089157214</v>
       </c>
       <c r="D80">
-        <v>0.02562485139321626</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02931849230480732</v>
+      </c>
+      <c r="E80">
+        <v>0.05251042451243593</v>
+      </c>
+      <c r="F80">
+        <v>0.01137384859216113</v>
+      </c>
+      <c r="G80">
+        <v>-0.05923590209355836</v>
+      </c>
+      <c r="H80">
+        <v>0.03398299657609626</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.06128876125387403</v>
+        <v>0.02627517201837096</v>
       </c>
       <c r="C81">
-        <v>-0.1622799667987616</v>
+        <v>0.1555165908671539</v>
       </c>
       <c r="D81">
-        <v>-0.07180800763578866</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04010083474733962</v>
+      </c>
+      <c r="E81">
+        <v>-0.1095259327321707</v>
+      </c>
+      <c r="F81">
+        <v>-0.01074500171301277</v>
+      </c>
+      <c r="G81">
+        <v>-0.05074916246186385</v>
+      </c>
+      <c r="H81">
+        <v>-0.08086499241556394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1151128094270418</v>
+        <v>0.06449277279742346</v>
       </c>
       <c r="C82">
-        <v>-0.2679108001293526</v>
+        <v>0.2313320241980297</v>
       </c>
       <c r="D82">
-        <v>-0.04033900774808696</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05515485084112429</v>
+      </c>
+      <c r="E82">
+        <v>-0.1593833380982285</v>
+      </c>
+      <c r="F82">
+        <v>0.08519483236724124</v>
+      </c>
+      <c r="G82">
+        <v>-0.1091787443978916</v>
+      </c>
+      <c r="H82">
+        <v>-0.1414918898896726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01789460803267523</v>
+        <v>-0.007041429380789651</v>
       </c>
       <c r="C83">
-        <v>-0.04838809120063042</v>
+        <v>0.01592898451991785</v>
       </c>
       <c r="D83">
-        <v>-0.0007627733534365952</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.07184822736600487</v>
+      </c>
+      <c r="E83">
+        <v>-0.09176459119957445</v>
+      </c>
+      <c r="F83">
+        <v>-0.2160720016056966</v>
+      </c>
+      <c r="G83">
+        <v>-0.8612655742881329</v>
+      </c>
+      <c r="H83">
+        <v>0.2844695195951265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.000774872504337317</v>
+        <v>-0.003036676953074108</v>
       </c>
       <c r="C84">
-        <v>-0.005759700780316498</v>
+        <v>0.02370932285727469</v>
       </c>
       <c r="D84">
-        <v>0.01327587961658101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01743295253715551</v>
+      </c>
+      <c r="E84">
+        <v>0.04288275819798617</v>
+      </c>
+      <c r="F84">
+        <v>-0.06189531781958954</v>
+      </c>
+      <c r="G84">
+        <v>0.0303547640551709</v>
+      </c>
+      <c r="H84">
+        <v>-0.05546501495202206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.08490739112381097</v>
+        <v>0.04944080264553351</v>
       </c>
       <c r="C85">
-        <v>-0.1785662449718534</v>
+        <v>0.1715891895770565</v>
       </c>
       <c r="D85">
-        <v>-0.09323855379682058</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1016495198576022</v>
+      </c>
+      <c r="E85">
+        <v>-0.1117297808589896</v>
+      </c>
+      <c r="F85">
+        <v>-0.0005666791087919153</v>
+      </c>
+      <c r="G85">
+        <v>-0.01009352224429485</v>
+      </c>
+      <c r="H85">
+        <v>-0.05166605559407613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02653948861796487</v>
+        <v>0.01581301979420922</v>
       </c>
       <c r="C86">
-        <v>-0.02725998195543887</v>
+        <v>0.0560978816840754</v>
       </c>
       <c r="D86">
-        <v>0.07343580706738932</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05336996198966885</v>
+      </c>
+      <c r="E86">
+        <v>0.05025127315885566</v>
+      </c>
+      <c r="F86">
+        <v>-0.07882009946773967</v>
+      </c>
+      <c r="G86">
+        <v>0.02188889228057831</v>
+      </c>
+      <c r="H86">
+        <v>-0.05972071025875748</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01998968708348117</v>
+        <v>0.01143259710789482</v>
       </c>
       <c r="C87">
-        <v>-0.06263337010810627</v>
+        <v>0.08046044184223841</v>
       </c>
       <c r="D87">
-        <v>0.1165256138439096</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.04375108146488375</v>
+      </c>
+      <c r="E87">
+        <v>0.1019247694508739</v>
+      </c>
+      <c r="F87">
+        <v>-0.09153007000634755</v>
+      </c>
+      <c r="G87">
+        <v>-0.007064243896809276</v>
+      </c>
+      <c r="H87">
+        <v>-0.04303599131298241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03469266704226333</v>
+        <v>0.0335224644507235</v>
       </c>
       <c r="C88">
-        <v>-0.07247197217600136</v>
+        <v>0.07954162903224181</v>
       </c>
       <c r="D88">
-        <v>0.0002500033168785802</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01901264540177498</v>
+      </c>
+      <c r="E88">
+        <v>0.01578697896485247</v>
+      </c>
+      <c r="F88">
+        <v>0.0001069626773908778</v>
+      </c>
+      <c r="G88">
+        <v>0.003530006309777056</v>
+      </c>
+      <c r="H88">
+        <v>-0.007357588537472605</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.4043201217760817</v>
+        <v>0.4025243185591967</v>
       </c>
       <c r="C89">
-        <v>0.2032462886906529</v>
+        <v>-0.1501416847455173</v>
       </c>
       <c r="D89">
-        <v>0.002772425635417992</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04062318715020856</v>
+      </c>
+      <c r="E89">
+        <v>0.01868763690194869</v>
+      </c>
+      <c r="F89">
+        <v>-0.1107492935789637</v>
+      </c>
+      <c r="G89">
+        <v>-0.08508012385203585</v>
+      </c>
+      <c r="H89">
+        <v>0.05604701872198416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.319048451498475</v>
+        <v>0.3245687860057512</v>
       </c>
       <c r="C90">
-        <v>0.1390073019520537</v>
+        <v>-0.08976008524953107</v>
       </c>
       <c r="D90">
-        <v>0.06444623350977041</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03047463931875827</v>
+      </c>
+      <c r="E90">
+        <v>0.03596005859742214</v>
+      </c>
+      <c r="F90">
+        <v>-0.002744648509002611</v>
+      </c>
+      <c r="G90">
+        <v>-0.01924580169659857</v>
+      </c>
+      <c r="H90">
+        <v>-0.04436985965607463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.09148037146740551</v>
+        <v>0.05978138070994246</v>
       </c>
       <c r="C91">
-        <v>-0.2221331832333236</v>
+        <v>0.1920851916071537</v>
       </c>
       <c r="D91">
-        <v>-0.1048538102888992</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.04142631371689517</v>
+      </c>
+      <c r="E91">
+        <v>-0.161820335166621</v>
+      </c>
+      <c r="F91">
+        <v>-0.0005656966034906182</v>
+      </c>
+      <c r="G91">
+        <v>-0.03712474492619851</v>
+      </c>
+      <c r="H91">
+        <v>-0.04200412444235935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.3179830033449051</v>
+        <v>0.3438057273138198</v>
       </c>
       <c r="C92">
-        <v>0.1762679852110038</v>
+        <v>-0.1362571892179303</v>
       </c>
       <c r="D92">
-        <v>-0.04984500853047378</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.05752948390793618</v>
+      </c>
+      <c r="E92">
+        <v>-0.04187639635945929</v>
+      </c>
+      <c r="F92">
+        <v>-0.07497188281637025</v>
+      </c>
+      <c r="G92">
+        <v>0.07845817041929667</v>
+      </c>
+      <c r="H92">
+        <v>-0.07137346285468159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.3365399369953612</v>
+        <v>0.3313279365862056</v>
       </c>
       <c r="C93">
-        <v>0.1509872550291399</v>
+        <v>-0.1112389963155731</v>
       </c>
       <c r="D93">
-        <v>-0.03132522727702202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.022588206198521</v>
+      </c>
+      <c r="E93">
+        <v>-0.01961394691940248</v>
+      </c>
+      <c r="F93">
+        <v>-0.0008330939845600647</v>
+      </c>
+      <c r="G93">
+        <v>0.04625531567584855</v>
+      </c>
+      <c r="H93">
+        <v>-0.01645345239813582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1675445293525846</v>
+        <v>0.1117247581365666</v>
       </c>
       <c r="C94">
-        <v>-0.2732577717407136</v>
+        <v>0.259799039737884</v>
       </c>
       <c r="D94">
-        <v>-0.1039995933406319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1261279522983736</v>
+      </c>
+      <c r="E94">
+        <v>-0.2685806854121868</v>
+      </c>
+      <c r="F94">
+        <v>0.1773966551651426</v>
+      </c>
+      <c r="G94">
+        <v>-0.1055209294805979</v>
+      </c>
+      <c r="H94">
+        <v>-0.2877843411596234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001595508799666434</v>
+        <v>0.01498004523916135</v>
       </c>
       <c r="C95">
-        <v>-0.07069225871961986</v>
+        <v>0.09931794465992438</v>
       </c>
       <c r="D95">
-        <v>0.08867995105230725</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1291327662236307</v>
+      </c>
+      <c r="E95">
+        <v>0.02994845512221309</v>
+      </c>
+      <c r="F95">
+        <v>0.05796712016076246</v>
+      </c>
+      <c r="G95">
+        <v>-0.003996425589992713</v>
+      </c>
+      <c r="H95">
+        <v>0.02825331103371812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002043611103879956</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001496209214939631</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.003491521105208499</v>
+      </c>
+      <c r="E97">
+        <v>0.003565654845943418</v>
+      </c>
+      <c r="F97">
+        <v>0.000585907479062522</v>
+      </c>
+      <c r="G97">
+        <v>0.003553862143296397</v>
+      </c>
+      <c r="H97">
+        <v>-0.004424708783169012</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1191158507432809</v>
+        <v>0.1302948214581728</v>
       </c>
       <c r="C98">
-        <v>-0.1162925595052143</v>
+        <v>0.1585855589568088</v>
       </c>
       <c r="D98">
-        <v>0.1407086574131151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0528344791022585</v>
+      </c>
+      <c r="E98">
+        <v>0.1785450606532578</v>
+      </c>
+      <c r="F98">
+        <v>0.2809830333698298</v>
+      </c>
+      <c r="G98">
+        <v>0.05805750228065657</v>
+      </c>
+      <c r="H98">
+        <v>0.2841058407198074</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0008099479623746784</v>
+        <v>0.002802911806483243</v>
       </c>
       <c r="C101">
-        <v>-0.02859343603421914</v>
+        <v>0.0512244589877847</v>
       </c>
       <c r="D101">
-        <v>0.06106519677498454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.004681718375510147</v>
+      </c>
+      <c r="E101">
+        <v>0.115488135876851</v>
+      </c>
+      <c r="F101">
+        <v>-0.06252944251726877</v>
+      </c>
+      <c r="G101">
+        <v>-0.03472554588928325</v>
+      </c>
+      <c r="H101">
+        <v>0.0522374651248197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.04561842659704565</v>
+        <v>0.01485879880966107</v>
       </c>
       <c r="C102">
-        <v>-0.153146077417752</v>
+        <v>0.1094076755946856</v>
       </c>
       <c r="D102">
-        <v>0.00311851447227719</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.02050620154940105</v>
+      </c>
+      <c r="E102">
+        <v>-0.08205403406427955</v>
+      </c>
+      <c r="F102">
+        <v>0.06965975378162799</v>
+      </c>
+      <c r="G102">
+        <v>-0.05166940444474031</v>
+      </c>
+      <c r="H102">
+        <v>-0.05623415773794903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
